--- a/medicine/Enfance/Isabelle_Lecomte/Isabelle_Lecomte.xlsx
+++ b/medicine/Enfance/Isabelle_Lecomte/Isabelle_Lecomte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isabelle Lecomte est un auteur belge, née le 1er août 1967.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née d'un père marionnettiste (auteur des Trois Cloups) et d'une mère bibliothécaire, elle rédige sa première nouvelle Le bonheur en tête à l'âge de seize ans grâce au soutien de l'écrivain belge Jacques Cels.
 Après des études en histoire de l'art à l'Université libre de Bruxelles, elle publie Le Pop Art chez Flammarion. Ensuite, les éditions Glénat lui demandent de rédiger le texte d'Ommegang. L'album raconte une fête populaire à Bruxelles dont le dessinateur belge René Follet a croqué chaque étape dans son style lumineux et réaliste.
@@ -521,7 +535,7 @@
 Depuis avril 2011, Isabelle Lecomte anime son propre site internet - CréatiVive. Un blog qui propose chaque semaine un exercice pour stimuler la créativité de tous!
 Fin 2012, elle s'installe en Suisse et devient rédactrice en chef de L'Hôtâ, revue consacrée au patrimoine rural jurassien.
 En 2013, Isabelle Lecomte écrit Des jouets qui font... Pouet!, le catalogue de l'exposition présentée à la Porte de Hal de Bruxelles.
-Elle est membre du Collectif 50/50 qui a pour but de promouvoir l’égalité des femmes et des hommes et la diversité sexuelle et de genre dans le cinéma et l’audiovisuel[1],[2].
+Elle est membre du Collectif 50/50 qui a pour but de promouvoir l’égalité des femmes et des hommes et la diversité sexuelle et de genre dans le cinéma et l’audiovisuel,.
 </t>
         </is>
       </c>
